--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4924" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1037,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1130,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1499,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1546,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1592,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2769,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2862,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3161,10 +3173,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3208,28 +3220,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3254,28 +3266,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3334,10 +3346,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3381,28 +3393,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3427,28 +3439,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3507,10 +3519,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3554,28 +3566,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3600,28 +3612,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3882,10 +3894,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3929,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3975,28 +3987,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4055,10 +4067,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4102,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4148,28 +4160,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4286,10 +4298,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4333,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4379,28 +4391,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4488,10 +4500,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4535,28 +4547,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4581,28 +4593,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4661,10 +4673,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4708,28 +4720,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4754,28 +4766,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4892,10 +4904,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4939,28 +4951,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4985,28 +4997,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5094,10 +5106,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5141,28 +5153,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5187,28 +5199,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5267,10 +5279,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5314,28 +5326,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5360,28 +5372,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5469,10 +5481,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5516,28 +5528,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5562,28 +5574,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5642,10 +5654,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5689,28 +5701,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5735,28 +5747,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5815,10 +5827,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5862,28 +5874,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5908,28 +5920,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5988,10 +6000,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6035,28 +6047,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6081,28 +6093,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6161,10 +6173,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6208,28 +6220,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6254,28 +6266,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6421,10 +6433,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6468,28 +6480,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6514,28 +6526,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6594,10 +6606,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6641,28 +6653,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6687,28 +6699,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6767,10 +6779,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6814,28 +6826,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6860,28 +6872,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6940,10 +6952,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6987,28 +6999,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7033,28 +7045,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7113,10 +7125,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7160,28 +7172,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7206,28 +7218,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7315,10 +7327,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7362,28 +7374,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7408,28 +7420,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7546,10 +7558,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7593,28 +7605,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7639,28 +7651,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7719,10 +7731,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7766,28 +7778,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7812,28 +7824,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7892,10 +7904,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7939,28 +7951,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7985,28 +7997,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8065,10 +8077,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8112,28 +8124,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8158,28 +8170,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8238,10 +8250,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8285,28 +8297,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8331,28 +8343,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8440,10 +8452,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8487,28 +8499,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8533,28 +8545,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8642,10 +8654,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8689,28 +8701,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8735,28 +8747,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8844,10 +8856,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8891,28 +8903,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8937,28 +8949,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9046,10 +9058,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9093,28 +9105,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9139,28 +9151,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9248,10 +9260,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9295,28 +9307,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9341,28 +9353,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9450,10 +9462,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9497,28 +9509,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9543,28 +9555,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9623,10 +9635,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9670,28 +9682,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9716,28 +9728,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9796,10 +9808,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9843,28 +9855,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9889,28 +9901,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9969,10 +9981,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10016,28 +10028,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10062,28 +10074,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10142,10 +10154,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10189,28 +10201,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10235,28 +10247,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10344,10 +10356,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="2" t="s">
+      <c r="J354" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10391,28 +10403,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
+      <c r="A356" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="2">
+      <c r="C356" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10437,28 +10449,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="2">
+      <c r="C358" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="2">
+      <c r="D358" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="2">
+      <c r="I358" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10546,10 +10558,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10593,28 +10605,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="2">
+      <c r="A363" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="2">
+      <c r="C363" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10639,28 +10651,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="2">
+      <c r="C365" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="2">
+      <c r="D365" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="2">
+      <c r="I365" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10719,10 +10731,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="2" t="s">
+      <c r="J367" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10766,28 +10778,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="2">
+      <c r="A369" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="2">
+      <c r="C369" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10812,28 +10824,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="2">
+      <c r="C371" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="2">
+      <c r="D371" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="2">
+      <c r="I371" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10892,10 +10904,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="2" t="s">
+      <c r="J373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10939,28 +10951,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="2">
+      <c r="A375" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="2">
+      <c r="C375" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10985,28 +10997,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="2">
+      <c r="C377" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="2">
+      <c r="D377" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="2">
+      <c r="I377" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11065,10 +11077,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11112,28 +11124,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11158,28 +11170,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11267,10 +11279,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4924" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13260" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -633,10 +681,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="4">
+      <c r="C19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -726,28 +774,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="4">
+      <c r="I21" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -806,10 +854,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -853,28 +901,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="A25" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="4">
+      <c r="C25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -899,28 +947,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="4">
+      <c r="I27" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1037,10 +1085,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1084,28 +1132,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="4">
+      <c r="C33" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1130,28 +1178,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1239,10 +1287,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1286,28 +1334,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1332,28 +1380,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1499,10 +1547,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="J47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1546,28 +1594,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="4">
+      <c r="A49" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="4">
+      <c r="C49" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1592,28 +1640,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="4">
+      <c r="I51" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1817,10 +1865,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1864,28 +1912,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="4">
+      <c r="A60" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="4">
+      <c r="C60" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1910,28 +1958,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="4">
+      <c r="I62" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2019,10 +2067,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="4" t="s">
+      <c r="J65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2066,28 +2114,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="4">
+      <c r="A67" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="4">
+      <c r="C67" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2112,28 +2160,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="4">
+      <c r="I69" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2221,10 +2269,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="4" t="s">
+      <c r="J72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2268,28 +2316,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="4">
+      <c r="A74" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="4">
+      <c r="C74" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2314,28 +2362,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="4">
+      <c r="I76" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2394,10 +2442,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="J78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2441,28 +2489,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="4">
+      <c r="A80" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="4">
+      <c r="C80" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2487,28 +2535,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="4">
+      <c r="D82" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="4">
+      <c r="I82" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2596,10 +2644,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="J85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2643,28 +2691,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="4">
+      <c r="C87" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2689,28 +2737,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="4">
+      <c r="I89" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2769,10 +2817,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="4" t="s">
+      <c r="J91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2816,28 +2864,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="4">
+      <c r="A93" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="4">
+      <c r="B93" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="4">
+      <c r="C93" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="4">
+      <c r="E93" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="4">
+      <c r="F93" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="4">
+      <c r="G93" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="4">
+      <c r="H93" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2862,28 +2910,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="4">
+      <c r="D95" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="4">
+      <c r="I95" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3000,10 +3048,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="J99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3047,28 +3095,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="4">
+      <c r="C101" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3093,28 +3141,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="4">
+      <c r="I103" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3173,10 +3221,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="4" t="s">
+      <c r="J105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3220,28 +3268,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="4">
+      <c r="C107" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3266,28 +3314,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3346,10 +3394,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="4" t="s">
+      <c r="J111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3393,28 +3441,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="4">
+      <c r="C113" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3439,28 +3487,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="4">
+      <c r="I115" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3519,10 +3567,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3566,28 +3614,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3612,28 +3660,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3721,10 +3769,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3768,28 +3816,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3814,28 +3862,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3894,10 +3942,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3941,28 +3989,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3987,28 +4035,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4067,10 +4115,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="4" t="s">
+      <c r="J136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4114,28 +4162,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="4">
+      <c r="C138" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4160,28 +4208,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4298,10 +4346,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4345,28 +4393,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4391,28 +4439,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4500,10 +4548,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="4" t="s">
+      <c r="J151" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4547,28 +4595,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="4">
+      <c r="A153" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="4">
+      <c r="C153" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4593,28 +4641,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="4">
+      <c r="I155" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4673,10 +4721,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="4" t="s">
+      <c r="J157" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4720,28 +4768,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="4">
+      <c r="C159" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4766,28 +4814,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="4">
+      <c r="I161" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4904,10 +4952,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="4" t="s">
+      <c r="J165" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4951,28 +4999,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="4">
+      <c r="A167" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="4">
+      <c r="C167" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4997,28 +5045,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="4">
+      <c r="B169" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="4">
+      <c r="C169" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="4">
+      <c r="D169" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="4">
+      <c r="E169" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="4">
+      <c r="F169" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="4">
+      <c r="G169" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="4">
+      <c r="H169" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="4">
+      <c r="I169" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5106,10 +5154,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="4" t="s">
+      <c r="J172" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5153,28 +5201,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="4">
+      <c r="C174" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5199,28 +5247,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="4">
+      <c r="I176" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5279,10 +5327,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="4" t="s">
+      <c r="J178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5326,28 +5374,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="4">
+      <c r="C180" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5372,28 +5420,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5481,10 +5529,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="4" t="s">
+      <c r="J185" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5528,28 +5576,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="4">
+      <c r="C187" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5574,28 +5622,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="4">
+      <c r="C189" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="4">
+      <c r="D189" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="4">
+      <c r="I189" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5654,10 +5702,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="4" t="s">
+      <c r="J191" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5701,28 +5749,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="4">
+      <c r="A193" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="4">
+      <c r="C193" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5747,28 +5795,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="4">
+      <c r="C195" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="4">
+      <c r="D195" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="4">
+      <c r="I195" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5827,10 +5875,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="4" t="s">
+      <c r="J197" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5874,28 +5922,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="4">
+      <c r="A199" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="4">
+      <c r="C199" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5920,28 +5968,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="4">
+      <c r="C201" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="4">
+      <c r="D201" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="4">
+      <c r="I201" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6000,10 +6048,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="4" t="s">
+      <c r="J203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6047,28 +6095,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="4">
+      <c r="C205" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6093,28 +6141,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="4">
+      <c r="I207" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6173,10 +6221,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="4" t="s">
+      <c r="J209" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6220,28 +6268,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="4">
+      <c r="A211" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="4">
+      <c r="C211" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6266,28 +6314,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="4">
+      <c r="C213" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="4">
+      <c r="D213" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="4">
+      <c r="I213" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6433,10 +6481,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="4" t="s">
+      <c r="J218" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6480,28 +6528,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="4">
+      <c r="A220" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="4">
+      <c r="C220" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6526,28 +6574,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="4">
+      <c r="C222" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="4">
+      <c r="D222" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="4">
+      <c r="I222" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6606,10 +6654,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="4" t="s">
+      <c r="J224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6653,28 +6701,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="4">
+      <c r="A226" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="4">
+      <c r="C226" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6699,28 +6747,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="4">
+      <c r="C228" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="4">
+      <c r="D228" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="4">
+      <c r="I228" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6779,10 +6827,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="4" t="s">
+      <c r="J230" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6826,28 +6874,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="4">
+      <c r="A232" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="4">
+      <c r="C232" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6872,28 +6920,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="4">
+      <c r="C234" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="4">
+      <c r="D234" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="4">
+      <c r="I234" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6952,10 +7000,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="4" t="s">
+      <c r="J236" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6999,28 +7047,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="4">
+      <c r="A238" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="4">
+      <c r="C238" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7045,28 +7093,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="4">
+      <c r="C240" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="4">
+      <c r="D240" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="4">
+      <c r="I240" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7125,10 +7173,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="4" t="s">
+      <c r="J242" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7172,28 +7220,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="4">
+      <c r="A244" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="4">
+      <c r="C244" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7218,28 +7266,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="4">
+      <c r="C246" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="4">
+      <c r="D246" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="4">
+      <c r="I246" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7327,10 +7375,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="4" t="s">
+      <c r="J249" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7374,28 +7422,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="4">
+      <c r="A251" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="4">
+      <c r="C251" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7420,28 +7468,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="4">
+      <c r="C253" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="4">
+      <c r="D253" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="4">
+      <c r="I253" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7558,10 +7606,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="4" t="s">
+      <c r="J257" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7605,28 +7653,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="4">
+      <c r="A259" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="4">
+      <c r="C259" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7651,28 +7699,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="4">
+      <c r="B261" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="4">
+      <c r="C261" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="4">
+      <c r="D261" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="4">
+      <c r="E261" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="4">
+      <c r="F261" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="4">
+      <c r="G261" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="4">
+      <c r="H261" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="4">
+      <c r="I261" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7731,10 +7779,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="4" t="s">
+      <c r="J263" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7778,28 +7826,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="4">
+      <c r="A265" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="4">
+      <c r="C265" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7824,28 +7872,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="4">
+      <c r="B267" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="4">
+      <c r="C267" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="4">
+      <c r="D267" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="4">
+      <c r="E267" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="4">
+      <c r="F267" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="4">
+      <c r="G267" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="4">
+      <c r="H267" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="4">
+      <c r="I267" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7904,10 +7952,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="4" t="s">
+      <c r="J269" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7951,28 +7999,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="4">
+      <c r="A271" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="4">
+      <c r="C271" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7997,28 +8045,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="4">
+      <c r="C273" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="4">
+      <c r="D273" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="4">
+      <c r="I273" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8077,10 +8125,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="4" t="s">
+      <c r="J275" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8124,28 +8172,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="4">
+      <c r="A277" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="4">
+      <c r="C277" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8170,28 +8218,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="4">
+      <c r="C279" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="4">
+      <c r="D279" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="4">
+      <c r="I279" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8250,10 +8298,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="4" t="s">
+      <c r="J281" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8297,28 +8345,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="4">
+      <c r="A283" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="4">
+      <c r="C283" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8343,28 +8391,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="4">
+      <c r="C285" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="4">
+      <c r="D285" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="4">
+      <c r="I285" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8452,10 +8500,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="4" t="s">
+      <c r="J288" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8499,28 +8547,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="4">
+      <c r="A290" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="4">
+      <c r="C290" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8545,28 +8593,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="4">
+      <c r="C292" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="4">
+      <c r="D292" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="4">
+      <c r="I292" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8654,10 +8702,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="4" t="s">
+      <c r="J295" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8701,28 +8749,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="4">
+      <c r="A297" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="4">
+      <c r="C297" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="4">
+      <c r="E297" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="4">
+      <c r="F297" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="4">
+      <c r="G297" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="4">
+      <c r="H297" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8747,28 +8795,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="4">
+      <c r="C299" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="4">
+      <c r="D299" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="4">
+      <c r="I299" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8856,10 +8904,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="4" t="s">
+      <c r="J302" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8903,28 +8951,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="4">
+      <c r="A304" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="4">
+      <c r="C304" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8949,28 +8997,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="4">
+      <c r="C306" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="4">
+      <c r="D306" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="4">
+      <c r="I306" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9058,10 +9106,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9105,28 +9153,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9151,28 +9199,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9260,10 +9308,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="4" t="s">
+      <c r="J316" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9307,28 +9355,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="4">
+      <c r="A318" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="4">
+      <c r="C318" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9353,28 +9401,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="4">
+      <c r="B320" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="4">
+      <c r="C320" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="4">
+      <c r="D320" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="4">
+      <c r="E320" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="4">
+      <c r="F320" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="4">
+      <c r="G320" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="4">
+      <c r="H320" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="4">
+      <c r="I320" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9462,10 +9510,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="4" t="s">
+      <c r="J323" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9509,28 +9557,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="4">
+      <c r="A325" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="4">
+      <c r="C325" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9555,28 +9603,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="4">
+      <c r="C327" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="4">
+      <c r="D327" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="4">
+      <c r="I327" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9635,10 +9683,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="4" t="s">
+      <c r="J329" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9682,28 +9730,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="4">
+      <c r="A331" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="4">
+      <c r="C331" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9728,28 +9776,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="4">
+      <c r="C333" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="4">
+      <c r="D333" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="4">
+      <c r="I333" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9808,10 +9856,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="4" t="s">
+      <c r="J335" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9855,28 +9903,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="4">
+      <c r="A337" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="4">
+      <c r="C337" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9901,28 +9949,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="4">
+      <c r="C339" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="4">
+      <c r="D339" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="4">
+      <c r="I339" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9981,10 +10029,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="4" t="s">
+      <c r="J341" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10028,28 +10076,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="4">
+      <c r="A343" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="4">
+      <c r="C343" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10074,28 +10122,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="4">
+      <c r="B345" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="4">
+      <c r="C345" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="4">
+      <c r="D345" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="4">
+      <c r="E345" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="4">
+      <c r="F345" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="4">
+      <c r="G345" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="4">
+      <c r="H345" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="4">
+      <c r="I345" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10154,10 +10202,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="4" t="s">
+      <c r="J347" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10201,28 +10249,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="4">
+      <c r="A349" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="4">
+      <c r="C349" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10247,28 +10295,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="4">
+      <c r="C351" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="4">
+      <c r="D351" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="4">
+      <c r="I351" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10356,10 +10404,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="4" t="s">
+      <c r="J354" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10403,28 +10451,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="4">
+      <c r="A356" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="4">
+      <c r="B356" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="4">
+      <c r="C356" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="4">
+      <c r="E356" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="4">
+      <c r="F356" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="4">
+      <c r="G356" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="4">
+      <c r="H356" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10449,28 +10497,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="4">
+      <c r="B358" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="4">
+      <c r="C358" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="4">
+      <c r="D358" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="4">
+      <c r="E358" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="4">
+      <c r="F358" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="4">
+      <c r="G358" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="4">
+      <c r="H358" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="4">
+      <c r="I358" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10558,10 +10606,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="4" t="s">
+      <c r="J361" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10605,28 +10653,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="4">
+      <c r="A363" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="4">
+      <c r="B363" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="4">
+      <c r="C363" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="4">
+      <c r="E363" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="4">
+      <c r="F363" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="4">
+      <c r="G363" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="4">
+      <c r="H363" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10651,28 +10699,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="4">
+      <c r="C365" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="4">
+      <c r="D365" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="4">
+      <c r="I365" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10731,10 +10779,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="4" t="s">
+      <c r="J367" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10778,28 +10826,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="4">
+      <c r="A369" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="4">
+      <c r="B369" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="4">
+      <c r="C369" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="4">
+      <c r="E369" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="4">
+      <c r="F369" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="4">
+      <c r="G369" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="4">
+      <c r="H369" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10824,28 +10872,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="4">
+      <c r="C371" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="4">
+      <c r="D371" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="4">
+      <c r="I371" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10904,10 +10952,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="4" t="s">
+      <c r="J373" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10951,28 +10999,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="4">
+      <c r="A375" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="4">
+      <c r="B375" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="4">
+      <c r="C375" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="4">
+      <c r="E375" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="4">
+      <c r="F375" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="4">
+      <c r="G375" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="4">
+      <c r="H375" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10997,28 +11045,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="4">
+      <c r="C377" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="4">
+      <c r="D377" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="4">
+      <c r="I377" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11077,10 +11125,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="4" t="s">
+      <c r="J379" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11124,28 +11172,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="4">
+      <c r="A381" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="4">
+      <c r="B381" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="4">
+      <c r="C381" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="4">
+      <c r="E381" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="4">
+      <c r="F381" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="4">
+      <c r="G381" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="4">
+      <c r="H381" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11170,28 +11218,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="4">
+      <c r="B383" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="4">
+      <c r="C383" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="4">
+      <c r="D383" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="4">
+      <c r="E383" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="4">
+      <c r="F383" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="4">
+      <c r="G383" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="4">
+      <c r="H383" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="4">
+      <c r="I383" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11279,10 +11327,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="4" t="s">
+      <c r="J386" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13260" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16386" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -681,10 +699,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -728,28 +746,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="12">
+      <c r="C19" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -774,28 +792,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -854,10 +872,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -901,28 +919,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="12">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="12">
+      <c r="C25" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -947,28 +965,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="12">
+      <c r="I27" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1085,10 +1103,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="12" t="s">
+      <c r="J31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1132,28 +1150,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="12">
+      <c r="C33" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1178,28 +1196,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1305,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1334,28 +1352,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="12">
+      <c r="C40" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1398,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1547,10 +1565,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="12" t="s">
+      <c r="J47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1594,28 +1612,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="12">
+      <c r="A49" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="12">
+      <c r="C49" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1640,28 +1658,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C51" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D51" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="12">
+      <c r="I51" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1865,10 +1883,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1912,28 +1930,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="12">
+      <c r="A60" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="12">
+      <c r="C60" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1958,28 +1976,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="12">
+      <c r="C62" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="12">
+      <c r="D62" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="12">
+      <c r="I62" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2085,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="12" t="s">
+      <c r="J65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2114,28 +2132,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="12">
+      <c r="A67" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="12">
+      <c r="C67" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2178,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="12">
+      <c r="C69" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="12">
+      <c r="D69" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="12">
+      <c r="I69" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2287,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="12" t="s">
+      <c r="J72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2316,28 +2334,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="12">
+      <c r="A74" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="12">
+      <c r="C74" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2380,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="12">
+      <c r="I76" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2442,10 +2460,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="12" t="s">
+      <c r="J78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2489,28 +2507,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="12">
+      <c r="A80" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="12">
+      <c r="C80" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2535,28 +2553,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="12">
+      <c r="C82" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="12">
+      <c r="D82" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="12">
+      <c r="I82" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2662,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2691,28 +2709,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="A87" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="12">
+      <c r="C87" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2755,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="12">
+      <c r="I89" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2835,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="J91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2864,28 +2882,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="12">
+      <c r="A93" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="12">
+      <c r="B93" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="12">
+      <c r="C93" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="12">
+      <c r="E93" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="12">
+      <c r="F93" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="12">
+      <c r="G93" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="12">
+      <c r="H93" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2928,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="12">
+      <c r="C95" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="12">
+      <c r="D95" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="12">
+      <c r="I95" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3048,10 +3066,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="12" t="s">
+      <c r="J99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3095,28 +3113,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="A101" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="12">
+      <c r="C101" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3141,28 +3159,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="12">
+      <c r="I103" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3221,10 +3239,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="12" t="s">
+      <c r="J105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3268,28 +3286,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="12">
+      <c r="C107" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3314,28 +3332,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3394,10 +3412,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="12" t="s">
+      <c r="J111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3441,28 +3459,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="A113" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="12">
+      <c r="C113" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3487,28 +3505,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="12">
+      <c r="I115" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3567,10 +3585,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="J117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3614,28 +3632,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="12">
+      <c r="C119" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3660,28 +3678,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3769,10 +3787,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3816,28 +3834,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3862,28 +3880,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3942,10 +3960,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3989,28 +4007,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4035,28 +4053,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4115,10 +4133,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="J136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4162,28 +4180,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="12">
+      <c r="C138" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4208,28 +4226,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4364,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4393,28 +4411,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4457,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4548,10 +4566,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="12" t="s">
+      <c r="J151" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4595,28 +4613,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="12">
+      <c r="A153" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="12">
+      <c r="C153" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4641,28 +4659,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="12">
+      <c r="I155" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4721,10 +4739,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="12" t="s">
+      <c r="J157" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4768,28 +4786,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="12">
+      <c r="A159" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="12">
+      <c r="C159" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4814,28 +4832,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="12">
+      <c r="I161" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4952,10 +4970,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="12" t="s">
+      <c r="J165" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4999,28 +5017,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="12">
+      <c r="A167" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="12">
+      <c r="C167" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5045,28 +5063,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="12">
+      <c r="B169" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="12">
+      <c r="C169" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="12">
+      <c r="D169" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="12">
+      <c r="E169" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="12">
+      <c r="F169" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="12">
+      <c r="G169" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="12">
+      <c r="H169" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="12">
+      <c r="I169" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5154,10 +5172,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="12" t="s">
+      <c r="J172" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5201,28 +5219,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="12">
+      <c r="A174" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="12">
+      <c r="C174" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5247,28 +5265,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="12">
+      <c r="I176" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5327,10 +5345,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="12" t="s">
+      <c r="J178" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5374,28 +5392,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="12">
+      <c r="C180" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5420,28 +5438,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5529,10 +5547,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="12" t="s">
+      <c r="J185" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5576,28 +5594,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="12">
+      <c r="A187" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="12">
+      <c r="C187" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5622,28 +5640,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="12">
+      <c r="C189" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="12">
+      <c r="D189" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="12">
+      <c r="I189" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5702,10 +5720,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="12" t="s">
+      <c r="J191" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5749,28 +5767,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="12">
+      <c r="A193" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="12">
+      <c r="C193" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5795,28 +5813,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="12">
+      <c r="C195" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="12">
+      <c r="D195" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="12">
+      <c r="I195" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5875,10 +5893,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="12" t="s">
+      <c r="J197" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5922,28 +5940,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="12">
+      <c r="A199" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="12">
+      <c r="C199" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5968,28 +5986,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="12">
+      <c r="C201" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="12">
+      <c r="D201" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="12">
+      <c r="I201" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6048,10 +6066,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="J203" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6095,28 +6113,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="12">
+      <c r="A205" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="12">
+      <c r="C205" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6141,28 +6159,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="12">
+      <c r="D207" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="12">
+      <c r="I207" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6221,10 +6239,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="12" t="s">
+      <c r="J209" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6268,28 +6286,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="12">
+      <c r="A211" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="12">
+      <c r="C211" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6314,28 +6332,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="12">
+      <c r="C213" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="12">
+      <c r="D213" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="12">
+      <c r="I213" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6481,10 +6499,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="12" t="s">
+      <c r="J218" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6528,28 +6546,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="12">
+      <c r="A220" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="12">
+      <c r="C220" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6574,28 +6592,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="12">
+      <c r="C222" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="12">
+      <c r="D222" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="12">
+      <c r="I222" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6654,10 +6672,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="12" t="s">
+      <c r="J224" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6701,28 +6719,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="12">
+      <c r="A226" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="12">
+      <c r="C226" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6747,28 +6765,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="12">
+      <c r="C228" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="12">
+      <c r="D228" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="12">
+      <c r="I228" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6827,10 +6845,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="12" t="s">
+      <c r="J230" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6874,28 +6892,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="12">
+      <c r="A232" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="12">
+      <c r="C232" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6920,28 +6938,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="12">
+      <c r="C234" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="12">
+      <c r="D234" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="12">
+      <c r="I234" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7000,10 +7018,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="12" t="s">
+      <c r="J236" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7047,28 +7065,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="12">
+      <c r="A238" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="12">
+      <c r="C238" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7093,28 +7111,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="12">
+      <c r="C240" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="12">
+      <c r="D240" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="12">
+      <c r="I240" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7173,10 +7191,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="12" t="s">
+      <c r="J242" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7220,28 +7238,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="12">
+      <c r="A244" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="12">
+      <c r="C244" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7266,28 +7284,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="12">
+      <c r="C246" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="12">
+      <c r="D246" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="12">
+      <c r="I246" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7375,10 +7393,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="12" t="s">
+      <c r="J249" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7422,28 +7440,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="12">
+      <c r="A251" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="12">
+      <c r="C251" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7468,28 +7486,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="12">
+      <c r="C253" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="12">
+      <c r="D253" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="12">
+      <c r="I253" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7606,10 +7624,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="12" t="s">
+      <c r="J257" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7653,28 +7671,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="12">
+      <c r="A259" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="12">
+      <c r="C259" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7699,28 +7717,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="12">
+      <c r="B261" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="12">
+      <c r="C261" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="12">
+      <c r="D261" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="12">
+      <c r="E261" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="12">
+      <c r="F261" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="12">
+      <c r="G261" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="12">
+      <c r="H261" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="12">
+      <c r="I261" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7779,10 +7797,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="12" t="s">
+      <c r="J263" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7826,28 +7844,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="12">
+      <c r="A265" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="12">
+      <c r="C265" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7872,28 +7890,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="12">
+      <c r="B267" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="12">
+      <c r="C267" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="12">
+      <c r="D267" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="12">
+      <c r="E267" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="12">
+      <c r="F267" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="12">
+      <c r="G267" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="12">
+      <c r="H267" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="12">
+      <c r="I267" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7952,10 +7970,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="12" t="s">
+      <c r="J269" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7999,28 +8017,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="12">
+      <c r="A271" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="12">
+      <c r="C271" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8045,28 +8063,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="12">
+      <c r="C273" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="12">
+      <c r="D273" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="12">
+      <c r="I273" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8125,10 +8143,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="12" t="s">
+      <c r="J275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8172,28 +8190,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="12">
+      <c r="A277" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="12">
+      <c r="C277" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8218,28 +8236,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="12">
+      <c r="C279" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="12">
+      <c r="D279" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="12">
+      <c r="I279" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8298,10 +8316,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="12" t="s">
+      <c r="J281" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8345,28 +8363,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="12">
+      <c r="A283" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="12">
+      <c r="C283" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8391,28 +8409,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="12">
+      <c r="C285" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="12">
+      <c r="D285" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="12">
+      <c r="I285" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8500,10 +8518,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="12" t="s">
+      <c r="J288" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8547,28 +8565,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="12">
+      <c r="A290" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="12">
+      <c r="C290" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8593,28 +8611,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="12">
+      <c r="C292" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="12">
+      <c r="D292" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="12">
+      <c r="I292" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8702,10 +8720,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="12" t="s">
+      <c r="J295" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8749,28 +8767,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="12">
+      <c r="A297" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="12">
+      <c r="C297" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="12">
+      <c r="E297" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="12">
+      <c r="F297" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="12">
+      <c r="G297" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="12">
+      <c r="H297" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8795,28 +8813,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="12">
+      <c r="C299" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="12">
+      <c r="D299" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="12">
+      <c r="I299" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8904,10 +8922,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="12" t="s">
+      <c r="J302" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8951,28 +8969,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="12">
+      <c r="A304" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="12">
+      <c r="C304" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8997,28 +9015,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="12">
+      <c r="C306" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="12">
+      <c r="D306" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="12">
+      <c r="I306" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9106,10 +9124,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9153,28 +9171,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9199,28 +9217,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9308,10 +9326,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="12" t="s">
+      <c r="J316" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9355,28 +9373,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="12">
+      <c r="A318" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="12">
+      <c r="C318" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9401,28 +9419,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="12">
+      <c r="C320" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="12">
+      <c r="D320" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="12">
+      <c r="E320" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="12">
+      <c r="F320" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="12">
+      <c r="G320" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="12">
+      <c r="H320" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="12">
+      <c r="I320" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9510,10 +9528,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="12" t="s">
+      <c r="J323" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9557,28 +9575,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="12">
+      <c r="A325" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="12">
+      <c r="C325" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9603,28 +9621,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="12">
+      <c r="C327" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="12">
+      <c r="D327" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="12">
+      <c r="I327" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9701,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="12" t="s">
+      <c r="J329" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9730,28 +9748,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="12">
+      <c r="A331" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="12">
+      <c r="C331" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9776,28 +9794,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="12">
+      <c r="C333" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="12">
+      <c r="D333" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="12">
+      <c r="I333" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9856,10 +9874,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="12" t="s">
+      <c r="J335" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9903,28 +9921,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="12">
+      <c r="A337" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="12">
+      <c r="C337" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9949,28 +9967,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="12">
+      <c r="C339" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="12">
+      <c r="D339" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="12">
+      <c r="I339" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10029,10 +10047,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="12" t="s">
+      <c r="J341" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10076,28 +10094,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="12">
+      <c r="A343" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="12">
+      <c r="C343" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10122,28 +10140,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="12">
+      <c r="B345" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="12">
+      <c r="C345" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="12">
+      <c r="D345" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="12">
+      <c r="E345" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="12">
+      <c r="F345" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="12">
+      <c r="G345" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="12">
+      <c r="H345" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="12">
+      <c r="I345" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10202,10 +10220,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="12" t="s">
+      <c r="J347" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10249,28 +10267,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="12">
+      <c r="A349" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="12">
+      <c r="C349" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10295,28 +10313,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="12">
+      <c r="C351" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="12">
+      <c r="D351" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="12">
+      <c r="I351" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10404,10 +10422,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="12" t="s">
+      <c r="J354" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10451,28 +10469,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="12">
+      <c r="A356" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="12">
+      <c r="B356" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="12">
+      <c r="C356" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="12">
+      <c r="E356" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="12">
+      <c r="F356" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="12">
+      <c r="G356" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="12">
+      <c r="H356" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10497,28 +10515,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="12">
+      <c r="B358" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="12">
+      <c r="C358" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="12">
+      <c r="D358" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="12">
+      <c r="E358" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="12">
+      <c r="F358" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="12">
+      <c r="G358" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="12">
+      <c r="H358" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="12">
+      <c r="I358" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10606,10 +10624,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="12" t="s">
+      <c r="J361" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10653,28 +10671,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="12">
+      <c r="A363" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="12">
+      <c r="B363" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="12">
+      <c r="C363" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="12">
+      <c r="E363" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="12">
+      <c r="F363" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="12">
+      <c r="G363" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="12">
+      <c r="H363" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10699,28 +10717,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="12">
+      <c r="C365" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="12">
+      <c r="D365" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="12">
+      <c r="I365" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10779,10 +10797,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="12" t="s">
+      <c r="J367" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10826,28 +10844,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="12">
+      <c r="A369" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="12">
+      <c r="B369" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="12">
+      <c r="C369" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="12">
+      <c r="E369" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="12">
+      <c r="F369" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="12">
+      <c r="G369" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="12">
+      <c r="H369" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10872,28 +10890,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="12">
+      <c r="C371" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="12">
+      <c r="D371" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="12">
+      <c r="I371" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10952,10 +10970,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="12" t="s">
+      <c r="J373" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10999,28 +11017,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="12">
+      <c r="A375" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="12">
+      <c r="B375" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="12">
+      <c r="C375" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="12">
+      <c r="E375" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="12">
+      <c r="F375" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="12">
+      <c r="G375" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="12">
+      <c r="H375" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11045,28 +11063,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="12">
+      <c r="C377" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="12">
+      <c r="D377" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="12">
+      <c r="I377" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11125,10 +11143,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="12" t="s">
+      <c r="J379" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11172,28 +11190,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="12">
+      <c r="A381" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="12">
+      <c r="B381" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="12">
+      <c r="C381" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="12">
+      <c r="E381" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="12">
+      <c r="F381" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="12">
+      <c r="G381" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="12">
+      <c r="H381" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11218,28 +11236,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="12">
+      <c r="B383" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="12">
+      <c r="C383" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="12">
+      <c r="D383" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="12">
+      <c r="E383" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="12">
+      <c r="F383" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="12">
+      <c r="G383" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="12">
+      <c r="H383" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="12">
+      <c r="I383" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11327,10 +11345,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="12" t="s">
+      <c r="J386" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
